--- a/raw_data/20200818_saline/20200818_Sensor2_Test_90.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_90.xlsx
@@ -1,1369 +1,1785 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC667B-DF10-434E-B2B5-A570260841FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>80474.116091</v>
+        <v>80474.116091000004</v>
       </c>
       <c r="B2" s="1">
         <v>22.353921</v>
       </c>
       <c r="C2" s="1">
-        <v>1250.340000</v>
+        <v>1250.3399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-307.503000</v>
+        <v>-307.50299999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>80484.277630</v>
+        <v>80484.277629999997</v>
       </c>
       <c r="G2" s="1">
-        <v>22.356744</v>
+        <v>22.356743999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1276.690000</v>
+        <v>1276.69</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.871000</v>
+        <v>-265.87099999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>80494.753136</v>
+        <v>80494.753135999999</v>
       </c>
       <c r="L2" s="1">
-        <v>22.359654</v>
+        <v>22.359653999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1313.050000</v>
+        <v>1313.05</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.707000</v>
+        <v>-204.70699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>80504.959810</v>
+        <v>80504.95981</v>
       </c>
       <c r="Q2" s="1">
         <v>22.362489</v>
       </c>
       <c r="R2" s="1">
-        <v>1325.350000</v>
+        <v>1325.35</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.846000</v>
+        <v>-186.846</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>80515.226533</v>
+        <v>80515.226532999994</v>
       </c>
       <c r="V2" s="1">
-        <v>22.365341</v>
+        <v>22.365341000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1338.880000</v>
+        <v>1338.88</v>
       </c>
       <c r="X2" s="1">
-        <v>-173.360000</v>
+        <v>-173.36</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>80525.983238</v>
+        <v>80525.983238000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.368329</v>
+        <v>22.368328999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1356.890000</v>
+        <v>1356.89</v>
       </c>
       <c r="AC2" s="1">
-        <v>-171.031000</v>
+        <v>-171.03100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>80536.569581</v>
+        <v>80536.569581000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.371269</v>
+        <v>22.371269000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1370.400000</v>
+        <v>1370.4</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.758000</v>
+        <v>-180.75800000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>80547.025019</v>
+        <v>80547.025018999993</v>
       </c>
       <c r="AK2" s="1">
         <v>22.374174</v>
       </c>
       <c r="AL2" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.314000</v>
+        <v>-210.31399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>80557.574429</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.377104</v>
+        <v>22.377103999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1414.310000</v>
+        <v>1414.31</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.654000</v>
+        <v>-253.654</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>80568.600494</v>
+        <v>80568.600493999998</v>
       </c>
       <c r="AU2" s="1">
         <v>22.380167</v>
       </c>
       <c r="AV2" s="1">
-        <v>1439.570000</v>
+        <v>1439.57</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>80579.752048</v>
+        <v>80579.752047999995</v>
       </c>
       <c r="AZ2" s="1">
         <v>22.383264</v>
       </c>
       <c r="BA2" s="1">
-        <v>1459.380000</v>
+        <v>1459.38</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.242000</v>
+        <v>-364.24200000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>80590.725537</v>
+        <v>80590.725537000006</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.386313</v>
+        <v>22.386313000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1546.080000</v>
+        <v>1546.08</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.148000</v>
+        <v>-609.14800000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>80602.069538</v>
+        <v>80602.069537999996</v>
       </c>
       <c r="BJ2" s="1">
         <v>22.389464</v>
       </c>
       <c r="BK2" s="1">
-        <v>1702.080000</v>
+        <v>1702.08</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.300000</v>
+        <v>-1047.3</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>80613.579203</v>
+        <v>80613.579203000001</v>
       </c>
       <c r="BO2" s="1">
         <v>22.392661</v>
       </c>
       <c r="BP2" s="1">
-        <v>1998.090000</v>
+        <v>1998.09</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1804.000000</v>
+        <v>-1804</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>80624.767461</v>
+        <v>80624.767460999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.395769</v>
+        <v>22.395769000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2386.550000</v>
+        <v>2386.5500000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2677.120000</v>
+        <v>-2677.12</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>80636.398644</v>
+        <v>80636.398644000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.399000</v>
+        <v>22.399000000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2866.970000</v>
+        <v>2866.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3621.700000</v>
+        <v>-3621.7</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>80647.722310</v>
+        <v>80647.722309999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.402145</v>
+        <v>22.402145000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4270.870000</v>
+        <v>4270.87</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5906.360000</v>
+        <v>-5906.36</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>80474.498507</v>
+        <v>80474.498506999997</v>
       </c>
       <c r="B3" s="1">
-        <v>22.354027</v>
+        <v>22.354026999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1250.300000</v>
+        <v>1250.3</v>
       </c>
       <c r="D3" s="1">
-        <v>-307.546000</v>
+        <v>-307.54599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>80484.627806</v>
+        <v>80484.627806000004</v>
       </c>
       <c r="G3" s="1">
-        <v>22.356841</v>
+        <v>22.356840999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1276.240000</v>
+        <v>1276.24</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.313000</v>
+        <v>-266.31299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>80495.131583</v>
+        <v>80495.131582999995</v>
       </c>
       <c r="L3" s="1">
         <v>22.359759</v>
       </c>
       <c r="M3" s="1">
-        <v>1313.220000</v>
+        <v>1313.22</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.964000</v>
+        <v>-204.964</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>80505.352145</v>
+        <v>80505.352144999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.362598</v>
+        <v>22.362597999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1325.290000</v>
+        <v>1325.29</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.903000</v>
+        <v>-186.90299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>80515.647110</v>
+        <v>80515.647110000005</v>
       </c>
       <c r="V3" s="1">
         <v>22.365458</v>
       </c>
       <c r="W3" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="X3" s="1">
-        <v>-173.299000</v>
+        <v>-173.29900000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>80526.404342</v>
+        <v>80526.404341999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.368446</v>
+        <v>22.368445999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1356.860000</v>
+        <v>1356.86</v>
       </c>
       <c r="AC3" s="1">
-        <v>-171.054000</v>
+        <v>-171.054</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>80536.968136</v>
+        <v>80536.968135999996</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.371380</v>
+        <v>22.371379999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1370.370000</v>
+        <v>1370.37</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.662000</v>
+        <v>-180.66200000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>80547.388123</v>
+        <v>80547.388122999997</v>
       </c>
       <c r="AK3" s="1">
         <v>22.374274</v>
       </c>
       <c r="AL3" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.325000</v>
+        <v>-210.32499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>80557.957355</v>
+        <v>80557.957355000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.377210</v>
+        <v>22.377210000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1414.290000</v>
+        <v>1414.29</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.618000</v>
+        <v>-253.61799999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>80568.968527</v>
+        <v>80568.968527000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.380269</v>
+        <v>22.380268999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>80580.491119</v>
+        <v>80580.491118999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.383470</v>
+        <v>22.383469999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1459.350000</v>
+        <v>1459.35</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.253000</v>
+        <v>-364.25299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>80591.462592</v>
+        <v>80591.462591999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.386517</v>
+        <v>22.386517000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1546.070000</v>
+        <v>1546.07</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.138000</v>
+        <v>-609.13800000000003</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>80602.482210</v>
+        <v>80602.482210000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>22.389578</v>
       </c>
       <c r="BK3" s="1">
-        <v>1702.000000</v>
+        <v>1702</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1047.330000</v>
+        <v>-1047.33</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>80613.985427</v>
+        <v>80613.985427000007</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.392774</v>
+        <v>22.392773999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1997.980000</v>
+        <v>1997.98</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1804.320000</v>
+        <v>-1804.32</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>80625.259491</v>
+        <v>80625.259491000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.395905</v>
+        <v>22.395904999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2386.620000</v>
+        <v>2386.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2677.090000</v>
+        <v>-2677.09</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>80637.179348</v>
+        <v>80637.179348000005</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.399216</v>
+        <v>22.399215999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2866.670000</v>
+        <v>2866.67</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3622.060000</v>
+        <v>-3622.06</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>80647.973286</v>
+        <v>80647.973285999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.402215</v>
+        <v>22.402215000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>4269.630000</v>
+        <v>4269.63</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5906.450000</v>
+        <v>-5906.45</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>80474.842234</v>
+        <v>80474.842233999996</v>
       </c>
       <c r="B4" s="1">
-        <v>22.354123</v>
+        <v>22.354123000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1250.480000</v>
+        <v>1250.48</v>
       </c>
       <c r="D4" s="1">
-        <v>-307.432000</v>
+        <v>-307.43200000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>80484.971069</v>
+        <v>80484.971069000007</v>
       </c>
       <c r="G4" s="1">
-        <v>22.356936</v>
+        <v>22.356936000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1276.160000</v>
+        <v>1276.1600000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.084000</v>
+        <v>-266.084</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>80495.564127</v>
+        <v>80495.564127000005</v>
       </c>
       <c r="L4" s="1">
-        <v>22.359879</v>
+        <v>22.359878999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1313.160000</v>
+        <v>1313.16</v>
       </c>
       <c r="N4" s="1">
-        <v>-205.096000</v>
+        <v>-205.096</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>80505.788791</v>
+        <v>80505.788790999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.362719</v>
+        <v>22.362718999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1325.280000</v>
+        <v>1325.28</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.900000</v>
+        <v>-186.9</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>80515.955653</v>
+        <v>80515.955652999997</v>
       </c>
       <c r="V4" s="1">
-        <v>22.365543</v>
+        <v>22.365542999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1338.820000</v>
+        <v>1338.82</v>
       </c>
       <c r="X4" s="1">
-        <v>-173.304000</v>
+        <v>-173.304</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>80526.752037</v>
+        <v>80526.752036999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.368542</v>
+        <v>22.368542000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1356.850000</v>
+        <v>1356.85</v>
       </c>
       <c r="AC4" s="1">
-        <v>-171.029000</v>
+        <v>-171.029</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>80537.309912</v>
+        <v>80537.309911999997</v>
       </c>
       <c r="AF4" s="1">
         <v>22.371475</v>
       </c>
       <c r="AG4" s="1">
-        <v>1370.410000</v>
+        <v>1370.41</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.652000</v>
+        <v>-180.65199999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>80547.739786</v>
+        <v>80547.739786000006</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.374372</v>
+        <v>22.374372000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.312000</v>
+        <v>-210.31200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>80558.664139</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.377407</v>
+        <v>22.377407000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1414.310000</v>
+        <v>1414.31</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.621000</v>
+        <v>-253.62100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>80569.695165</v>
+        <v>80569.695164999997</v>
       </c>
       <c r="AU4" s="1">
         <v>22.380471</v>
       </c>
       <c r="AV4" s="1">
-        <v>1439.560000</v>
+        <v>1439.56</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.844000</v>
+        <v>-312.84399999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>80580.851678</v>
+        <v>80580.851678000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.383570</v>
+        <v>22.383569999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1459.370000</v>
+        <v>1459.37</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.254000</v>
+        <v>-364.25400000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>80591.830127</v>
+        <v>80591.830126999994</v>
       </c>
       <c r="BE4" s="1">
         <v>22.386619</v>
       </c>
       <c r="BF4" s="1">
-        <v>1546.090000</v>
+        <v>1546.09</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.088000</v>
+        <v>-609.08799999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>80602.850737</v>
+        <v>80602.850737000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>22.389681</v>
       </c>
       <c r="BK4" s="1">
-        <v>1701.970000</v>
+        <v>1701.97</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.330000</v>
+        <v>-1047.33</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>80614.712065</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.392976</v>
+        <v>22.392976000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1997.870000</v>
+        <v>1997.87</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.340000</v>
+        <v>-1804.34</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>80626.023826</v>
+        <v>80626.023826000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.396118</v>
+        <v>22.396118000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2386.440000</v>
+        <v>2386.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2676.780000</v>
+        <v>-2676.78</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>80637.345011</v>
+        <v>80637.345010999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.399263</v>
+        <v>22.399263000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2867.460000</v>
+        <v>2867.46</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3622.260000</v>
+        <v>-3622.26</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>80648.492826</v>
+        <v>80648.492826000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.402359</v>
+        <v>22.402359000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4280.490000</v>
+        <v>4280.49</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5894.680000</v>
+        <v>-5894.68</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>80475.268841</v>
+        <v>80475.268840999997</v>
       </c>
       <c r="B5" s="1">
-        <v>22.354241</v>
+        <v>22.354240999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1250.240000</v>
+        <v>1250.24</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.593000</v>
+        <v>-307.59300000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>80485.403548</v>
+        <v>80485.403548000002</v>
       </c>
       <c r="G5" s="1">
-        <v>22.357057</v>
+        <v>22.357057000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1276.300000</v>
+        <v>1276.3</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.625000</v>
+        <v>-266.625</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>80495.857230</v>
+        <v>80495.857229999994</v>
       </c>
       <c r="L5" s="1">
-        <v>22.359960</v>
+        <v>22.359960000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1312.970000</v>
+        <v>1312.97</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.803000</v>
+        <v>-204.803</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>80506.062417</v>
+        <v>80506.062416999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.362795</v>
+        <v>22.362794999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1325.230000</v>
+        <v>1325.23</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.872000</v>
+        <v>-186.87200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>80516.298355</v>
+        <v>80516.298355000006</v>
       </c>
       <c r="V5" s="1">
-        <v>22.365638</v>
+        <v>22.365638000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1338.720000</v>
+        <v>1338.72</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.303000</v>
+        <v>-173.303</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>80527.099764</v>
+        <v>80527.099763999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.368639</v>
+        <v>22.368639000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1357.020000</v>
+        <v>1357.02</v>
       </c>
       <c r="AC5" s="1">
-        <v>-171.024000</v>
+        <v>-171.024</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>80537.655127</v>
+        <v>80537.655127000005</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.371571</v>
+        <v>22.371570999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1370.390000</v>
+        <v>1370.39</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.632000</v>
+        <v>-180.63200000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>80548.435642</v>
+        <v>80548.435641999997</v>
       </c>
       <c r="AK5" s="1">
         <v>22.374565</v>
       </c>
       <c r="AL5" s="1">
-        <v>1391.870000</v>
+        <v>1391.87</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.297000</v>
+        <v>-210.297</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>80559.058955</v>
@@ -1372,1737 +1788,1737 @@
         <v>22.377516</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1414.290000</v>
+        <v>1414.29</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.648000</v>
+        <v>-253.648</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>80570.081052</v>
+        <v>80570.081051999994</v>
       </c>
       <c r="AU5" s="1">
         <v>22.380578</v>
       </c>
       <c r="AV5" s="1">
-        <v>1439.570000</v>
+        <v>1439.57</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.851000</v>
+        <v>-312.851</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>80581.210781</v>
+        <v>80581.210781000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.383670</v>
+        <v>22.383669999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.285000</v>
+        <v>-364.28500000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>80592.187248</v>
+        <v>80592.187248000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.386719</v>
+        <v>22.386718999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1546.070000</v>
+        <v>1546.07</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.118000</v>
+        <v>-609.11800000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>80603.541697</v>
+        <v>80603.541696999993</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.389873</v>
+        <v>22.389873000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1701.950000</v>
+        <v>1701.95</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.370000</v>
+        <v>-1047.3699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>80614.832593</v>
+        <v>80614.832592999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.393009</v>
+        <v>22.393008999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1997.800000</v>
+        <v>1997.8</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.340000</v>
+        <v>-1804.34</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>80626.508945</v>
+        <v>80626.508944999994</v>
       </c>
       <c r="BT5" s="1">
         <v>22.396252</v>
       </c>
       <c r="BU5" s="1">
-        <v>2387.050000</v>
+        <v>2387.0500000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2676.990000</v>
+        <v>-2676.99</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>80637.770083</v>
+        <v>80637.770082999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.399381</v>
+        <v>22.399381000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2867.180000</v>
+        <v>2867.18</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3622.360000</v>
+        <v>-3622.36</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>80649.012403</v>
+        <v>80649.012403000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.402503</v>
+        <v>22.402502999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4277.050000</v>
+        <v>4277.05</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5899.310000</v>
+        <v>-5899.31</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>80475.556473</v>
+        <v>80475.556473000004</v>
       </c>
       <c r="B6" s="1">
-        <v>22.354321</v>
+        <v>22.354320999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1250.200000</v>
+        <v>1250.2</v>
       </c>
       <c r="D6" s="1">
-        <v>-307.588000</v>
+        <v>-307.58800000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>80485.678829</v>
+        <v>80485.678828999997</v>
       </c>
       <c r="G6" s="1">
-        <v>22.357133</v>
+        <v>22.357133000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1276.070000</v>
+        <v>1276.07</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.534000</v>
+        <v>-266.53399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>80496.201951</v>
+        <v>80496.201950999995</v>
       </c>
       <c r="L6" s="1">
         <v>22.360056</v>
       </c>
       <c r="M6" s="1">
-        <v>1313.040000</v>
+        <v>1313.04</v>
       </c>
       <c r="N6" s="1">
-        <v>-204.799000</v>
+        <v>-204.79900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>80506.428960</v>
+        <v>80506.428960000005</v>
       </c>
       <c r="Q6" s="1">
         <v>22.362897</v>
       </c>
       <c r="R6" s="1">
-        <v>1325.270000</v>
+        <v>1325.27</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.841000</v>
+        <v>-186.84100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>80516.639636</v>
+        <v>80516.639636000007</v>
       </c>
       <c r="V6" s="1">
-        <v>22.365733</v>
+        <v>22.365732999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1339.020000</v>
+        <v>1339.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-173.379000</v>
+        <v>-173.37899999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>80527.800580</v>
+        <v>80527.800579999996</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.368833</v>
+        <v>22.368832999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1357.000000</v>
+        <v>1357</v>
       </c>
       <c r="AC6" s="1">
-        <v>-171.044000</v>
+        <v>-171.04400000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>80538.341063</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.371761</v>
+        <v>22.371760999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1370.460000</v>
+        <v>1370.46</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.510000</v>
+        <v>-180.51</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>80548.783839</v>
+        <v>80548.783838999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.374662</v>
+        <v>22.374662000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.295000</v>
+        <v>-210.29499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>80559.437900</v>
+        <v>80559.437900000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.377622</v>
+        <v>22.377621999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1414.300000</v>
+        <v>1414.3</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.641000</v>
+        <v>-253.64099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>80570.444620</v>
+        <v>80570.444619999995</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.380679</v>
+        <v>22.380679000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1439.590000</v>
+        <v>1439.59</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.797000</v>
+        <v>-312.79700000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>80581.878930</v>
+        <v>80581.878930000006</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.383855</v>
+        <v>22.383855000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.262000</v>
+        <v>-364.262</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>80592.928767</v>
+        <v>80592.928767000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.386925</v>
+        <v>22.386925000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1546.060000</v>
+        <v>1546.06</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.098000</v>
+        <v>-609.09799999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>80603.981119</v>
+        <v>80603.981119000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.389995</v>
+        <v>22.389994999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1701.950000</v>
+        <v>1701.95</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.310000</v>
+        <v>-1047.31</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>80615.226913</v>
+        <v>80615.226913000006</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.393119</v>
+        <v>22.393118999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1997.830000</v>
+        <v>1997.83</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.250000</v>
+        <v>-1804.25</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>80626.968223</v>
+        <v>80626.968223000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.396380</v>
+        <v>22.396380000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2386.840000</v>
+        <v>2386.84</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2676.700000</v>
+        <v>-2676.7</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>80638.217507</v>
+        <v>80638.217506999994</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.399505</v>
+        <v>22.399505000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2866.380000</v>
+        <v>2866.38</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3621.880000</v>
+        <v>-3621.88</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>80649.566931</v>
+        <v>80649.566930999994</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.402657</v>
+        <v>22.402657000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4266.670000</v>
+        <v>4266.67</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5907.130000</v>
+        <v>-5907.13</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>80475.897224</v>
       </c>
       <c r="B7" s="1">
-        <v>22.354416</v>
+        <v>22.354416000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1250.420000</v>
+        <v>1250.42</v>
       </c>
       <c r="D7" s="1">
-        <v>-307.260000</v>
+        <v>-307.26</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>80486.028522</v>
+        <v>80486.028521999993</v>
       </c>
       <c r="G7" s="1">
-        <v>22.357230</v>
+        <v>22.357230000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1275.830000</v>
+        <v>1275.83</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.481000</v>
+        <v>-266.48099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>80496.546669</v>
+        <v>80496.546669000003</v>
       </c>
       <c r="L7" s="1">
-        <v>22.360152</v>
+        <v>22.360151999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1312.760000</v>
+        <v>1312.76</v>
       </c>
       <c r="N7" s="1">
-        <v>-204.943000</v>
+        <v>-204.94300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>80507.106495</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.363085</v>
+        <v>22.363085000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1325.320000</v>
+        <v>1325.32</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.790000</v>
+        <v>-186.79</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>80517.328050</v>
+        <v>80517.328049999996</v>
       </c>
       <c r="V7" s="1">
         <v>22.365924</v>
       </c>
       <c r="W7" s="1">
-        <v>1338.940000</v>
+        <v>1338.94</v>
       </c>
       <c r="X7" s="1">
-        <v>-173.384000</v>
+        <v>-173.38399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>80528.147290</v>
+        <v>80528.147289999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.368930</v>
+        <v>22.368929999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1356.960000</v>
+        <v>1356.96</v>
       </c>
       <c r="AC7" s="1">
-        <v>-171.144000</v>
+        <v>-171.14400000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>80538.683301</v>
+        <v>80538.683300999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.371856</v>
+        <v>22.371856000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1370.380000</v>
+        <v>1370.38</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.768000</v>
+        <v>-180.768</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>80549.133016</v>
+        <v>80549.133016000007</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.374759</v>
+        <v>22.374759000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1391.840000</v>
+        <v>1391.84</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.294000</v>
+        <v>-210.29400000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>80560.109978</v>
+        <v>80560.109977999993</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.377808</v>
+        <v>22.377808000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.593000</v>
+        <v>-253.59299999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>80571.121200</v>
+        <v>80571.121199999994</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.380867</v>
+        <v>22.380866999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1439.590000</v>
+        <v>1439.59</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>80582.288093</v>
+        <v>80582.288092999996</v>
       </c>
       <c r="AZ7" s="1">
         <v>22.383969</v>
       </c>
       <c r="BA7" s="1">
-        <v>1459.350000</v>
+        <v>1459.35</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.230000</v>
+        <v>-364.23</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>80593.292866</v>
+        <v>80593.292866000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.387026</v>
+        <v>22.387025999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1546.040000</v>
+        <v>1546.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.109000</v>
+        <v>-609.10900000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>80604.351631</v>
+        <v>80604.351630999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.390098</v>
+        <v>22.390097999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1701.860000</v>
+        <v>1701.86</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.340000</v>
+        <v>-1047.3399999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>80615.653471</v>
+        <v>80615.653470999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.393237</v>
+        <v>22.393236999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1997.720000</v>
+        <v>1997.72</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.400000</v>
+        <v>-1804.4</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>80627.368480</v>
+        <v>80627.368480000005</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.396491</v>
+        <v>22.396491000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2387.450000</v>
+        <v>2387.4499999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2676.090000</v>
+        <v>-2676.09</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>80638.647506</v>
+        <v>80638.647505999994</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.399624</v>
+        <v>22.399623999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2866.020000</v>
+        <v>2866.02</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3622.430000</v>
+        <v>-3622.43</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>80650.093682</v>
+        <v>80650.093682000006</v>
       </c>
       <c r="CD7" s="1">
         <v>22.402804</v>
       </c>
       <c r="CE7" s="1">
-        <v>4278.990000</v>
+        <v>4278.99</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5895.360000</v>
+        <v>-5895.36</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>80476.239968</v>
+        <v>80476.239967999994</v>
       </c>
       <c r="B8" s="1">
-        <v>22.354511</v>
+        <v>22.354510999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="D8" s="1">
-        <v>-307.618000</v>
+        <v>-307.61799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80486.371244</v>
+        <v>80486.371243999994</v>
       </c>
       <c r="G8" s="1">
-        <v>22.357325</v>
+        <v>22.357324999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1276.150000</v>
+        <v>1276.1500000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.953000</v>
+        <v>-266.95299999999997</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>80497.241565</v>
+        <v>80497.241565000004</v>
       </c>
       <c r="L8" s="1">
-        <v>22.360345</v>
+        <v>22.360344999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1313.020000</v>
+        <v>1313.02</v>
       </c>
       <c r="N8" s="1">
-        <v>-204.961000</v>
+        <v>-204.96100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>80507.462127</v>
+        <v>80507.462127000006</v>
       </c>
       <c r="Q8" s="1">
         <v>22.363184</v>
       </c>
       <c r="R8" s="1">
-        <v>1325.300000</v>
+        <v>1325.3</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.891000</v>
+        <v>-186.89099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>80517.671284</v>
+        <v>80517.671283999996</v>
       </c>
       <c r="V8" s="1">
-        <v>22.366020</v>
+        <v>22.366019999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1338.990000</v>
+        <v>1338.99</v>
       </c>
       <c r="X8" s="1">
-        <v>-173.265000</v>
+        <v>-173.26499999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>80528.492995</v>
+        <v>80528.492994999993</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.369026</v>
+        <v>22.369026000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1356.950000</v>
+        <v>1356.95</v>
       </c>
       <c r="AC8" s="1">
-        <v>-171.040000</v>
+        <v>-171.04</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>80539.028021</v>
+        <v>80539.028021000006</v>
       </c>
       <c r="AF8" s="1">
         <v>22.371952</v>
       </c>
       <c r="AG8" s="1">
-        <v>1370.300000</v>
+        <v>1370.3</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.568000</v>
+        <v>-180.56800000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>80549.787767</v>
+        <v>80549.787767000002</v>
       </c>
       <c r="AK8" s="1">
         <v>22.374941</v>
       </c>
       <c r="AL8" s="1">
-        <v>1391.850000</v>
+        <v>1391.85</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.256000</v>
+        <v>-210.256</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>80560.517688</v>
+        <v>80560.517688000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.377922</v>
+        <v>22.377922000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.615000</v>
+        <v>-253.61500000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>80571.575002</v>
+        <v>80571.575001999998</v>
       </c>
       <c r="AU8" s="1">
         <v>22.380993</v>
       </c>
       <c r="AV8" s="1">
-        <v>1439.580000</v>
+        <v>1439.58</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.833000</v>
+        <v>-312.83300000000003</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>80582.673483</v>
+        <v>80582.673483000006</v>
       </c>
       <c r="AZ8" s="1">
         <v>22.384076</v>
       </c>
       <c r="BA8" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.247000</v>
+        <v>-364.24700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>80593.673261</v>
+        <v>80593.673261000004</v>
       </c>
       <c r="BE8" s="1">
         <v>22.387131</v>
       </c>
       <c r="BF8" s="1">
-        <v>1546.050000</v>
+        <v>1546.05</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.093000</v>
+        <v>-609.09299999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>80604.728095</v>
+        <v>80604.728094999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.390202</v>
+        <v>22.390201999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1701.930000</v>
+        <v>1701.93</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1047.320000</v>
+        <v>-1047.32</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>80616.085983</v>
+        <v>80616.085982999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.393357</v>
+        <v>22.393357000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1997.740000</v>
+        <v>1997.74</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.280000</v>
+        <v>-1804.28</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>80628.214656</v>
+        <v>80628.214655999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.396726</v>
+        <v>22.396726000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2387.470000</v>
+        <v>2387.4699999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2675.710000</v>
+        <v>-2675.71</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>80639.069138</v>
+        <v>80639.069138000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.399741</v>
+        <v>22.399740999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2866.340000</v>
+        <v>2866.34</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3622.600000</v>
+        <v>-3622.6</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>80650.613986</v>
+        <v>80650.613985999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.402948</v>
+        <v>22.402947999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4264.680000</v>
+        <v>4264.68</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5885.610000</v>
+        <v>-5885.61</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>80476.920968</v>
+        <v>80476.920968000006</v>
       </c>
       <c r="B9" s="1">
-        <v>22.354700</v>
+        <v>22.354700000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1250.500000</v>
+        <v>1250.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-307.890000</v>
+        <v>-307.89</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>80487.060185</v>
+        <v>80487.060184999995</v>
       </c>
       <c r="G9" s="1">
-        <v>22.357517</v>
+        <v>22.357517000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1276.420000</v>
+        <v>1276.42</v>
       </c>
       <c r="I9" s="1">
-        <v>-267.187000</v>
+        <v>-267.18700000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>80497.585292</v>
+        <v>80497.585292000003</v>
       </c>
       <c r="L9" s="1">
-        <v>22.360440</v>
+        <v>22.360440000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1312.970000</v>
+        <v>1312.97</v>
       </c>
       <c r="N9" s="1">
-        <v>-205.203000</v>
+        <v>-205.203</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>80507.813790</v>
+        <v>80507.81379</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.363282</v>
+        <v>22.363282000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1325.250000</v>
+        <v>1325.25</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.980000</v>
+        <v>-186.98</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>80518.020000</v>
+        <v>80518.02</v>
       </c>
       <c r="V9" s="1">
-        <v>22.366117</v>
+        <v>22.366116999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1338.920000</v>
+        <v>1338.92</v>
       </c>
       <c r="X9" s="1">
-        <v>-173.493000</v>
+        <v>-173.49299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>80529.163586</v>
+        <v>80529.163585999995</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.369212</v>
+        <v>22.369212000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1356.930000</v>
+        <v>1356.93</v>
       </c>
       <c r="AC9" s="1">
-        <v>-171.182000</v>
+        <v>-171.18199999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>80539.708532</v>
+        <v>80539.708532000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.372141</v>
+        <v>22.372140999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1370.260000</v>
+        <v>1370.26</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.761000</v>
+        <v>-180.761</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>80550.181063</v>
+        <v>80550.181062999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.375050</v>
+        <v>22.375050000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.299000</v>
+        <v>-210.29900000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>80560.909032</v>
+        <v>80560.909031999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.378030</v>
+        <v>22.378029999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1414.300000</v>
+        <v>1414.3</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.585000</v>
+        <v>-253.58500000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>80571.939561</v>
+        <v>80571.939561000007</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.381094</v>
+        <v>22.381094000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.820000</v>
+        <v>-312.82</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>80583.033083</v>
+        <v>80583.033083000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>22.384176</v>
       </c>
       <c r="BA9" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.230000</v>
+        <v>-364.23</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>80594.106268</v>
+        <v>80594.106268000003</v>
       </c>
       <c r="BE9" s="1">
         <v>22.387252</v>
       </c>
       <c r="BF9" s="1">
-        <v>1546.040000</v>
+        <v>1546.04</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.087000</v>
+        <v>-609.08699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>80605.159614</v>
+        <v>80605.159614000004</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.390322</v>
+        <v>22.390322000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1701.870000</v>
+        <v>1701.87</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.300000</v>
+        <v>-1047.3</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>80616.468895</v>
+        <v>80616.468894999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.393464</v>
+        <v>22.393464000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1997.700000</v>
+        <v>1997.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.380000</v>
+        <v>-1804.38</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>80628.646671</v>
+        <v>80628.646670999995</v>
       </c>
       <c r="BT9" s="1">
         <v>22.396846</v>
       </c>
       <c r="BU9" s="1">
-        <v>2387.210000</v>
+        <v>2387.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2675.710000</v>
+        <v>-2675.71</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>80639.493680</v>
+        <v>80639.49368</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.399859</v>
+        <v>22.399858999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2866.770000</v>
+        <v>2866.77</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3621.750000</v>
+        <v>-3621.75</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>80651.129857</v>
+        <v>80651.129857000007</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.403092</v>
+        <v>22.403092000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4259.620000</v>
+        <v>4259.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5901.990000</v>
+        <v>-5901.99</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>80477.268167</v>
+        <v>80477.268167000002</v>
       </c>
       <c r="B10" s="1">
-        <v>22.354797</v>
+        <v>22.354797000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1250.440000</v>
+        <v>1250.44</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.559000</v>
+        <v>-307.55900000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>80487.406394</v>
+        <v>80487.406394000005</v>
       </c>
       <c r="G10" s="1">
-        <v>22.357613</v>
+        <v>22.357613000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1275.910000</v>
+        <v>1275.9100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.606000</v>
+        <v>-265.60599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>80497.930507</v>
+        <v>80497.930506999997</v>
       </c>
       <c r="L10" s="1">
         <v>22.360536</v>
       </c>
       <c r="M10" s="1">
-        <v>1313.320000</v>
+        <v>1313.32</v>
       </c>
       <c r="N10" s="1">
-        <v>-205.130000</v>
+        <v>-205.13</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>80508.485869</v>
+        <v>80508.485868999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.363468</v>
+        <v>22.363468000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1325.180000</v>
+        <v>1325.18</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.858000</v>
+        <v>-186.858</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>80518.670230</v>
+        <v>80518.670230000003</v>
       </c>
       <c r="V10" s="1">
-        <v>22.366297</v>
+        <v>22.366296999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1339.060000</v>
+        <v>1339.06</v>
       </c>
       <c r="X10" s="1">
-        <v>-173.276000</v>
+        <v>-173.27600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>80529.539090</v>
+        <v>80529.539090000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.369316</v>
+        <v>22.369316000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1356.900000</v>
+        <v>1356.9</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.966000</v>
+        <v>-170.96600000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>80540.055237</v>
+        <v>80540.055236999993</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.372238</v>
+        <v>22.372237999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1370.330000</v>
+        <v>1370.33</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.694000</v>
+        <v>-180.69399999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>80550.524294</v>
+        <v>80550.524294000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.375146</v>
+        <v>22.375146000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.280000</v>
+        <v>-210.28</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>80561.267406</v>
+        <v>80561.267405999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.378130</v>
+        <v>22.378129999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1414.260000</v>
+        <v>1414.26</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.574000</v>
+        <v>-253.57400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>80572.303625</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.381195</v>
+        <v>22.381195000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1439.560000</v>
+        <v>1439.56</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.843000</v>
+        <v>-312.84300000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>80583.435834</v>
+        <v>80583.435834000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.384288</v>
+        <v>22.384288000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.225000</v>
+        <v>-364.22500000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>80594.394947</v>
+        <v>80594.394946999993</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.387332</v>
+        <v>22.387332000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1546.020000</v>
+        <v>1546.02</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.072000</v>
+        <v>-609.072</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>80605.507805</v>
+        <v>80605.507805000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.390419</v>
+        <v>22.390419000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1701.930000</v>
+        <v>1701.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.300000</v>
+        <v>-1047.3</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>80616.867678</v>
+        <v>80616.867677999995</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.393574</v>
+        <v>22.393574000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1997.490000</v>
+        <v>1997.49</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1804.220000</v>
+        <v>-1804.22</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>80629.074719</v>
+        <v>80629.074718999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.396965</v>
+        <v>22.396965000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2387.540000</v>
+        <v>2387.54</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2675.270000</v>
+        <v>-2675.27</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>80639.919248</v>
+        <v>80639.919248000006</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.399978</v>
+        <v>22.399978000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2866.170000</v>
+        <v>2866.17</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3622.070000</v>
+        <v>-3622.07</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>80651.647650</v>
+        <v>80651.647649999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.403235</v>
+        <v>22.403234999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4277.570000</v>
+        <v>4277.57</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5901.340000</v>
+        <v>-5901.34</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>80477.609910</v>
+        <v>80477.609909999999</v>
       </c>
       <c r="B11" s="1">
         <v>22.354892</v>
       </c>
       <c r="C11" s="1">
-        <v>1250.400000</v>
+        <v>1250.4000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-307.351000</v>
+        <v>-307.351</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>80487.750617</v>
+        <v>80487.750616999998</v>
       </c>
       <c r="G11" s="1">
         <v>22.357709</v>
       </c>
       <c r="H11" s="1">
-        <v>1276.930000</v>
+        <v>1276.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.237000</v>
+        <v>-266.23700000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>80498.603579</v>
+        <v>80498.603579000002</v>
       </c>
       <c r="L11" s="1">
         <v>22.360723</v>
       </c>
       <c r="M11" s="1">
-        <v>1312.910000</v>
+        <v>1312.91</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.034000</v>
+        <v>-205.03399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>80508.861839</v>
+        <v>80508.861839000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.363573</v>
+        <v>22.363572999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1325.160000</v>
+        <v>1325.16</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.841000</v>
+        <v>-186.84100000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>80519.049201</v>
+        <v>80519.049201000002</v>
       </c>
       <c r="V11" s="1">
-        <v>22.366403</v>
+        <v>22.366402999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1339.040000</v>
+        <v>1339.04</v>
       </c>
       <c r="X11" s="1">
-        <v>-173.397000</v>
+        <v>-173.39699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>80529.890721</v>
+        <v>80529.890721000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.369414</v>
+        <v>22.369413999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1356.940000</v>
+        <v>1356.94</v>
       </c>
       <c r="AC11" s="1">
-        <v>-171.156000</v>
+        <v>-171.15600000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>80540.403427</v>
+        <v>80540.403426999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.372334</v>
+        <v>22.372333999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1370.530000</v>
+        <v>1370.53</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.669000</v>
+        <v>-180.66900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>80550.876950</v>
+        <v>80550.876950000005</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.375244</v>
+        <v>22.375243999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1391.850000</v>
+        <v>1391.85</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.301000</v>
+        <v>-210.30099999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>80561.685767</v>
+        <v>80561.685767000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.378246</v>
+        <v>22.378246000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1414.270000</v>
+        <v>1414.27</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.577000</v>
+        <v>-253.577</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>80572.733351</v>
+        <v>80572.733351000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.381315</v>
+        <v>22.381315000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1439.560000</v>
+        <v>1439.56</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.853000</v>
+        <v>-312.85300000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>80583.750298</v>
+        <v>80583.750297999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.384375</v>
+        <v>22.384374999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.243000</v>
+        <v>-364.24299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>80594.756027</v>
+        <v>80594.756026999996</v>
       </c>
       <c r="BE11" s="1">
         <v>22.387432</v>
       </c>
       <c r="BF11" s="1">
-        <v>1546.030000</v>
+        <v>1546.03</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.108000</v>
+        <v>-609.10799999999995</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>80605.882285</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.390523</v>
+        <v>22.390523000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1701.870000</v>
+        <v>1701.87</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1047.270000</v>
+        <v>-1047.27</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>80617.284814</v>
+        <v>80617.284813999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.393690</v>
+        <v>22.393689999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1997.650000</v>
+        <v>1997.65</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1804.150000</v>
+        <v>-1804.15</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>80629.505741</v>
+        <v>80629.505741000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.397085</v>
+        <v>22.397085000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2387.520000</v>
+        <v>2387.52</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2675.160000</v>
+        <v>-2675.16</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>80640.351296</v>
+        <v>80640.351295999993</v>
       </c>
       <c r="BY11" s="1">
         <v>22.400098</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2866.740000</v>
+        <v>2866.74</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3622.580000</v>
+        <v>-3622.58</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>80652.163984</v>
+        <v>80652.163983999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.403379</v>
+        <v>22.403379000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4273.660000</v>
+        <v>4273.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5884.760000</v>
+        <v>-5884.76</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>80478.271110</v>
+        <v>80478.271110000001</v>
       </c>
       <c r="B12" s="1">
-        <v>22.355075</v>
+        <v>22.355074999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1250.440000</v>
+        <v>1250.44</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.648000</v>
+        <v>-307.64800000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>80488.409304</v>
+        <v>80488.409304000001</v>
       </c>
       <c r="G12" s="1">
-        <v>22.357891</v>
+        <v>22.357890999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1276.570000</v>
+        <v>1276.57</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.977000</v>
+        <v>-266.97699999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>80498.970122</v>
+        <v>80498.970121999999</v>
       </c>
       <c r="L12" s="1">
-        <v>22.360825</v>
+        <v>22.360824999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1312.860000</v>
+        <v>1312.86</v>
       </c>
       <c r="N12" s="1">
-        <v>-204.825000</v>
+        <v>-204.82499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>80509.211020</v>
+        <v>80509.211020000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.363670</v>
+        <v>22.363669999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1325.200000</v>
+        <v>1325.2</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.802000</v>
+        <v>-186.80199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>80519.393891</v>
@@ -3111,934 +3527,934 @@
         <v>22.366498</v>
       </c>
       <c r="W12" s="1">
-        <v>1339.020000</v>
+        <v>1339.02</v>
       </c>
       <c r="X12" s="1">
-        <v>-173.174000</v>
+        <v>-173.17400000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>80530.240401</v>
+        <v>80530.240401000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.369511</v>
+        <v>22.369510999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1356.850000</v>
+        <v>1356.85</v>
       </c>
       <c r="AC12" s="1">
-        <v>-171.167000</v>
+        <v>-171.167</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>80540.753114</v>
+        <v>80540.753114000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.372431</v>
+        <v>22.372430999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.677000</v>
+        <v>-180.67699999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>80551.301029</v>
+        <v>80551.301028999995</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.375361</v>
+        <v>22.375361000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1391.830000</v>
+        <v>1391.83</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.281000</v>
+        <v>-210.28100000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>80561.987336</v>
+        <v>80561.987336000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.378330</v>
+        <v>22.378329999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1414.260000</v>
+        <v>1414.26</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.602000</v>
+        <v>-253.602</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>80573.032249</v>
+        <v>80573.032248999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.381398</v>
+        <v>22.381398000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1439.520000</v>
+        <v>1439.52</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.818000</v>
+        <v>-312.81799999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>80584.108938</v>
+        <v>80584.108938000005</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.384475</v>
+        <v>22.384474999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.216000</v>
+        <v>-364.21600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>80595.118603</v>
+        <v>80595.118602999995</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.387533</v>
+        <v>22.387533000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1546.060000</v>
+        <v>1546.06</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.045000</v>
+        <v>-609.04499999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>80606.258252</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.390627</v>
+        <v>22.390626999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1701.910000</v>
+        <v>1701.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1047.260000</v>
+        <v>-1047.26</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>80618.104733</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.393918</v>
+        <v>22.393917999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1997.610000</v>
+        <v>1997.61</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.220000</v>
+        <v>-1804.22</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>80629.916958</v>
+        <v>80629.916958000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.397199</v>
+        <v>22.397199000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2387.770000</v>
+        <v>2387.77</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2674.560000</v>
+        <v>-2674.56</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>80640.785759</v>
+        <v>80640.785759000006</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.400218</v>
+        <v>22.400217999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2866.710000</v>
+        <v>2866.71</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3622.520000</v>
+        <v>-3622.52</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>80652.687300</v>
+        <v>80652.687300000005</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.403524</v>
+        <v>22.403524000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.710000</v>
+        <v>4275.71</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5891.540000</v>
+        <v>-5891.54</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>80478.631701</v>
+        <v>80478.631701000006</v>
       </c>
       <c r="B13" s="1">
-        <v>22.355175</v>
+        <v>22.355174999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1250.280000</v>
+        <v>1250.28</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.309000</v>
+        <v>-307.30900000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>80488.806105</v>
+        <v>80488.806104999996</v>
       </c>
       <c r="G13" s="1">
-        <v>22.358002</v>
+        <v>22.358001999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1276.150000</v>
+        <v>1276.1500000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.532000</v>
+        <v>-266.53199999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>80499.313887</v>
+        <v>80499.313886999997</v>
       </c>
       <c r="L13" s="1">
-        <v>22.360921</v>
+        <v>22.360921000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1313.080000</v>
+        <v>1313.08</v>
       </c>
       <c r="N13" s="1">
-        <v>-204.768000</v>
+        <v>-204.768</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>80509.560237</v>
+        <v>80509.560236999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.363767</v>
+        <v>22.363766999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1325.210000</v>
+        <v>1325.21</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.829000</v>
+        <v>-186.82900000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>80519.736655</v>
+        <v>80519.736655000001</v>
       </c>
       <c r="V13" s="1">
-        <v>22.366594</v>
+        <v>22.366593999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1338.910000</v>
+        <v>1338.91</v>
       </c>
       <c r="X13" s="1">
-        <v>-173.330000</v>
+        <v>-173.33</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>80530.673904</v>
+        <v>80530.673903999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.369632</v>
+        <v>22.369631999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1356.730000</v>
+        <v>1356.73</v>
       </c>
       <c r="AC13" s="1">
-        <v>-171.044000</v>
+        <v>-171.04400000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>80541.220834</v>
+        <v>80541.220834000007</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.372561</v>
+        <v>22.372561000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1370.280000</v>
+        <v>1370.28</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.687000</v>
+        <v>-180.68700000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>80551.572341</v>
+        <v>80551.572341000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.375437</v>
+        <v>22.375437000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1391.830000</v>
+        <v>1391.83</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.325000</v>
+        <v>-210.32499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>80562.350617</v>
+        <v>80562.350617000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.378431</v>
+        <v>22.378430999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1414.280000</v>
+        <v>1414.28</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.603000</v>
+        <v>-253.60300000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>80573.398797</v>
+        <v>80573.398797000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.381500</v>
+        <v>22.381499999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1439.560000</v>
+        <v>1439.56</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.862000</v>
+        <v>-312.86200000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>80584.468042</v>
+        <v>80584.468041999993</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.384574</v>
+        <v>22.384574000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.191000</v>
+        <v>-364.19099999999997</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>80595.837835</v>
+        <v>80595.837834999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.387733</v>
+        <v>22.387733000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1546.020000</v>
+        <v>1546.02</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.052000</v>
+        <v>-609.05200000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>80607.033003</v>
+        <v>80607.033003000004</v>
       </c>
       <c r="BJ13" s="1">
         <v>22.390843</v>
       </c>
       <c r="BK13" s="1">
-        <v>1701.940000</v>
+        <v>1701.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.250000</v>
+        <v>-1047.25</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>80618.523821</v>
+        <v>80618.523820999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.394034</v>
+        <v>22.394034000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1997.750000</v>
+        <v>1997.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.170000</v>
+        <v>-1804.17</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>80630.346492</v>
+        <v>80630.346491999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.397318</v>
+        <v>22.397317999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2387.320000</v>
+        <v>2387.3200000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2674.350000</v>
+        <v>-2674.35</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>80641.207358</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.400335</v>
+        <v>22.400334999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2866.620000</v>
+        <v>2866.62</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3622.030000</v>
+        <v>-3622.03</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>80653.550830</v>
+        <v>80653.550829999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.403764</v>
+        <v>22.403763999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4278.250000</v>
+        <v>4278.25</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5900.010000</v>
+        <v>-5900.01</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>80478.976884</v>
+        <v>80478.976884000003</v>
       </c>
       <c r="B14" s="1">
-        <v>22.355271</v>
+        <v>22.355270999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1250.070000</v>
+        <v>1250.07</v>
       </c>
       <c r="D14" s="1">
-        <v>-307.606000</v>
+        <v>-307.60599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>80489.158772</v>
+        <v>80489.158771999995</v>
       </c>
       <c r="G14" s="1">
-        <v>22.358100</v>
+        <v>22.3581</v>
       </c>
       <c r="H14" s="1">
-        <v>1276.210000</v>
+        <v>1276.21</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.660000</v>
+        <v>-266.66000000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>80499.662537</v>
+        <v>80499.662536999997</v>
       </c>
       <c r="L14" s="1">
         <v>22.361017</v>
       </c>
       <c r="M14" s="1">
-        <v>1312.690000</v>
+        <v>1312.69</v>
       </c>
       <c r="N14" s="1">
-        <v>-204.969000</v>
+        <v>-204.96899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>80509.976843</v>
+        <v>80509.976842999997</v>
       </c>
       <c r="Q14" s="1">
         <v>22.363882</v>
       </c>
       <c r="R14" s="1">
-        <v>1325.250000</v>
+        <v>1325.25</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.944000</v>
+        <v>-186.94399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>80520.164671</v>
+        <v>80520.164671000006</v>
       </c>
       <c r="V14" s="1">
         <v>22.366712</v>
       </c>
       <c r="W14" s="1">
-        <v>1338.800000</v>
+        <v>1338.8</v>
       </c>
       <c r="X14" s="1">
-        <v>-173.252000</v>
+        <v>-173.25200000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>80530.945713</v>
+        <v>80530.945712999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.369707</v>
+        <v>22.369706999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1356.940000</v>
+        <v>1356.94</v>
       </c>
       <c r="AC14" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>80541.458916</v>
+        <v>80541.458916000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.372627</v>
+        <v>22.372627000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1370.380000</v>
+        <v>1370.38</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.732000</v>
+        <v>-180.732</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>80551.922020</v>
+        <v>80551.922019999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.375534</v>
+        <v>22.375533999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1391.850000</v>
+        <v>1391.85</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.300000</v>
+        <v>-210.3</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>80562.707526</v>
+        <v>80562.707525999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.378530</v>
+        <v>22.378530000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1414.290000</v>
+        <v>1414.29</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.593000</v>
+        <v>-253.59299999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>80573.766327</v>
+        <v>80573.766327000005</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.381602</v>
+        <v>22.381602000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1439.570000</v>
+        <v>1439.57</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>80585.192169</v>
+        <v>80585.192169000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.384776</v>
+        <v>22.384775999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1459.300000</v>
+        <v>1459.3</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.166000</v>
+        <v>-364.166</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>80596.226699</v>
+        <v>80596.226699000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.387841</v>
+        <v>22.387841000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1546.040000</v>
+        <v>1546.04</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.063000</v>
+        <v>-609.06299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>80607.409996</v>
+        <v>80607.409996000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.390947</v>
+        <v>22.390947000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1701.880000</v>
+        <v>1701.88</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.240000</v>
+        <v>-1047.24</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>80618.919639</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.394144</v>
+        <v>22.394144000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1997.600000</v>
+        <v>1997.6</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.080000</v>
+        <v>-1804.08</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>80631.070123</v>
+        <v>80631.070122999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.397519</v>
+        <v>22.397518999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2387.360000</v>
+        <v>2387.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2674.070000</v>
+        <v>-2674.07</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>80641.941935</v>
+        <v>80641.941934999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.400539</v>
+        <v>22.400538999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2866.550000</v>
+        <v>2866.55</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3622.140000</v>
+        <v>-3622.14</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>80653.766572</v>
+        <v>80653.766571999993</v>
       </c>
       <c r="CD14" s="1">
         <v>22.403824</v>
       </c>
       <c r="CE14" s="1">
-        <v>4272.190000</v>
+        <v>4272.1899999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5883.900000</v>
+        <v>-5883.9</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>80479.318628</v>
+        <v>80479.318627999994</v>
       </c>
       <c r="B15" s="1">
         <v>22.355366</v>
       </c>
       <c r="C15" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="D15" s="1">
-        <v>-307.481000</v>
+        <v>-307.48099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>80489.498024</v>
       </c>
       <c r="G15" s="1">
-        <v>22.358194</v>
+        <v>22.358194000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1276.550000</v>
+        <v>1276.55</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.129000</v>
+        <v>-266.12900000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>80500.089602</v>
+        <v>80500.089601999993</v>
       </c>
       <c r="L15" s="1">
-        <v>22.361136</v>
+        <v>22.361135999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1312.870000</v>
+        <v>1312.87</v>
       </c>
       <c r="N15" s="1">
-        <v>-204.940000</v>
+        <v>-204.94</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>80510.267534</v>
+        <v>80510.267533999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.363963</v>
+        <v>22.363962999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1325.180000</v>
+        <v>1325.18</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.906000</v>
+        <v>-186.90600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>80520.430061</v>
+        <v>80520.430061000006</v>
       </c>
       <c r="V15" s="1">
-        <v>22.366786</v>
+        <v>22.366786000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1338.680000</v>
+        <v>1338.68</v>
       </c>
       <c r="X15" s="1">
-        <v>-173.368000</v>
+        <v>-173.36799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>80531.293407</v>
+        <v>80531.293407000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.369804</v>
+        <v>22.369803999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1356.820000</v>
+        <v>1356.82</v>
       </c>
       <c r="AC15" s="1">
-        <v>-171.116000</v>
+        <v>-171.11600000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>80541.801192</v>
+        <v>80541.801191999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.372723</v>
+        <v>22.372723000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1370.410000</v>
+        <v>1370.41</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.683000</v>
+        <v>-180.68299999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>80552.270744</v>
+        <v>80552.270743999994</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.375631</v>
+        <v>22.375630999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1391.830000</v>
+        <v>1391.83</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.259000</v>
+        <v>-210.25899999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>80563.429701</v>
+        <v>80563.429701000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.378730</v>
+        <v>22.378730000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1414.260000</v>
+        <v>1414.26</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.584000</v>
+        <v>-253.584</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>80574.493462</v>
+        <v>80574.493461999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.381804</v>
+        <v>22.381803999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.824000</v>
+        <v>-312.82400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>80585.568632</v>
+        <v>80585.568631999995</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.384880</v>
+        <v>22.384879999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.201000</v>
+        <v>-364.20100000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>80596.609081</v>
+        <v>80596.609081000002</v>
       </c>
       <c r="BE15" s="1">
         <v>22.387947</v>
       </c>
       <c r="BF15" s="1">
-        <v>1546.090000</v>
+        <v>1546.09</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.062000</v>
+        <v>-609.06200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>80607.784974</v>
+        <v>80607.784973999995</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.391051</v>
+        <v>22.391051000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1701.950000</v>
+        <v>1701.95</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.280000</v>
+        <v>-1047.28</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>80619.653708</v>
+        <v>80619.653707999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.394348</v>
+        <v>22.394348000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1997.460000</v>
+        <v>1997.46</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1804.130000</v>
+        <v>-1804.13</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>80631.187675</v>
+        <v>80631.187674999994</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.397552</v>
+        <v>22.397552000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2387.430000</v>
+        <v>2387.4299999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2673.720000</v>
+        <v>-2673.72</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>80642.107613</v>
@@ -4047,2857 +4463,2858 @@
         <v>22.400585</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2867.030000</v>
+        <v>2867.03</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3622.520000</v>
+        <v>-3622.52</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>80654.284414</v>
+        <v>80654.284413999994</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.403968</v>
+        <v>22.403967999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4275.030000</v>
+        <v>4275.03</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5891.350000</v>
+        <v>-5891.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>80479.743203</v>
+        <v>80479.743203000005</v>
       </c>
       <c r="B16" s="1">
-        <v>22.355484</v>
+        <v>22.355484000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1250.250000</v>
+        <v>1250.25</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.758000</v>
+        <v>-307.75799999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>80490.185974</v>
+        <v>80490.185974000007</v>
       </c>
       <c r="G16" s="1">
-        <v>22.358385</v>
+        <v>22.358384999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1275.890000</v>
+        <v>1275.8900000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.189000</v>
+        <v>-266.18900000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>80500.372655</v>
+        <v>80500.372654999999</v>
       </c>
       <c r="L16" s="1">
-        <v>22.361215</v>
+        <v>22.361215000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1312.970000</v>
+        <v>1312.97</v>
       </c>
       <c r="N16" s="1">
-        <v>-205.078000</v>
+        <v>-205.078</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>80510.616187</v>
+        <v>80510.616187000007</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.364060</v>
+        <v>22.364059999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1325.130000</v>
+        <v>1325.13</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.934000</v>
+        <v>-186.934</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>80520.778717</v>
+        <v>80520.778716999994</v>
       </c>
       <c r="V16" s="1">
-        <v>22.366883</v>
+        <v>22.366883000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1338.790000</v>
+        <v>1338.79</v>
       </c>
       <c r="X16" s="1">
-        <v>-173.238000</v>
+        <v>-173.238</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>80531.643088</v>
+        <v>80531.643087999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.369901</v>
+        <v>22.369900999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1356.930000</v>
+        <v>1356.93</v>
       </c>
       <c r="AC16" s="1">
-        <v>-171.072000</v>
+        <v>-171.072</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>80542.486626</v>
+        <v>80542.486625999998</v>
       </c>
       <c r="AF16" s="1">
         <v>22.372913</v>
       </c>
       <c r="AG16" s="1">
-        <v>1370.320000</v>
+        <v>1370.32</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.646000</v>
+        <v>-180.64599999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>80552.968083</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.375824</v>
+        <v>22.375824000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1391.800000</v>
+        <v>1391.8</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.302000</v>
+        <v>-210.30199999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>80563.788341</v>
+        <v>80563.788341000007</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.378830</v>
+        <v>22.378830000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1414.260000</v>
+        <v>1414.26</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.591000</v>
+        <v>-253.59100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>80574.882326</v>
+        <v>80574.882326000006</v>
       </c>
       <c r="AU16" s="1">
         <v>22.381912</v>
       </c>
       <c r="AV16" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>80585.944600</v>
+        <v>80585.944600000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>22.384985</v>
       </c>
       <c r="BA16" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>80597.291112</v>
+        <v>80597.291112000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.388136</v>
+        <v>22.388135999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1546.030000</v>
+        <v>1546.03</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.093000</v>
+        <v>-609.09299999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>80608.480827</v>
+        <v>80608.480827000007</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.391245</v>
+        <v>22.391245000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1701.880000</v>
+        <v>1701.88</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.290000</v>
+        <v>-1047.29</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>80619.763818</v>
+        <v>80619.763818000007</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.394379</v>
+        <v>22.394379000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1997.710000</v>
+        <v>1997.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.180000</v>
+        <v>-1804.18</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>80631.626636</v>
+        <v>80631.626636000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.397674</v>
+        <v>22.397673999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2386.980000</v>
+        <v>2386.98</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2673.380000</v>
+        <v>-2673.38</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>80642.534652</v>
+        <v>80642.534652000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.400704</v>
+        <v>22.400704000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2866.500000</v>
+        <v>2866.5</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3622.250000</v>
+        <v>-3622.25</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>80654.836430</v>
+        <v>80654.836429999996</v>
       </c>
       <c r="CD16" s="1">
         <v>22.404121</v>
       </c>
       <c r="CE16" s="1">
-        <v>4274.660000</v>
+        <v>4274.66</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5902.100000</v>
+        <v>-5902.1</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>80480.016004</v>
+        <v>80480.016004000005</v>
       </c>
       <c r="B17" s="1">
-        <v>22.355560</v>
+        <v>22.355560000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1250.300000</v>
+        <v>1250.3</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.578000</v>
+        <v>-307.57799999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>80490.529701</v>
+        <v>80490.529701000007</v>
       </c>
       <c r="G17" s="1">
-        <v>22.358480</v>
+        <v>22.35848</v>
       </c>
       <c r="H17" s="1">
-        <v>1275.700000</v>
+        <v>1275.7</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.733000</v>
+        <v>-266.733</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>80500.720503</v>
+        <v>80500.720503000004</v>
       </c>
       <c r="L17" s="1">
-        <v>22.361311</v>
+        <v>22.361311000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.929000</v>
+        <v>-204.929</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>80510.964874</v>
+        <v>80510.964873999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.364157</v>
+        <v>22.364156999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1325.160000</v>
+        <v>1325.16</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.787000</v>
+        <v>-186.78700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>80521.121951</v>
+        <v>80521.121950999994</v>
       </c>
       <c r="V17" s="1">
         <v>22.366978</v>
       </c>
       <c r="W17" s="1">
-        <v>1338.960000</v>
+        <v>1338.96</v>
       </c>
       <c r="X17" s="1">
-        <v>-173.221000</v>
+        <v>-173.221</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>80532.343935</v>
+        <v>80532.343934999997</v>
       </c>
       <c r="AA17" s="1">
         <v>22.370096</v>
       </c>
       <c r="AB17" s="1">
-        <v>1357.030000</v>
+        <v>1357.03</v>
       </c>
       <c r="AC17" s="1">
-        <v>-171.228000</v>
+        <v>-171.22800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>80542.830384</v>
+        <v>80542.830384000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.373008</v>
+        <v>22.373007999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1370.400000</v>
+        <v>1370.4</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.742000</v>
+        <v>-180.74199999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>80553.315810</v>
+        <v>80553.31581</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.375921</v>
+        <v>22.375921000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1391.810000</v>
+        <v>1391.81</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.286000</v>
+        <v>-210.286</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>80564.148404</v>
+        <v>80564.148404000007</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.378930</v>
+        <v>22.37893</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1414.280000</v>
+        <v>1414.28</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.608000</v>
+        <v>-253.608</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>80575.246885</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.382013</v>
+        <v>22.382013000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1439.540000</v>
+        <v>1439.54</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.786000</v>
+        <v>-312.786</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>80586.616214</v>
+        <v>80586.616213999994</v>
       </c>
       <c r="AZ17" s="1">
         <v>22.385171</v>
       </c>
       <c r="BA17" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.188000</v>
+        <v>-364.18799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>80597.691351</v>
+        <v>80597.691351000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.388248</v>
+        <v>22.388248000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1546.040000</v>
+        <v>1546.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.051000</v>
+        <v>-609.05100000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>80608.940121</v>
+        <v>80608.940121000007</v>
       </c>
       <c r="BJ17" s="1">
         <v>22.391372</v>
       </c>
       <c r="BK17" s="1">
-        <v>1701.830000</v>
+        <v>1701.83</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.320000</v>
+        <v>-1047.32</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>80620.159131</v>
+        <v>80620.159130999993</v>
       </c>
       <c r="BO17" s="1">
         <v>22.394489</v>
       </c>
       <c r="BP17" s="1">
-        <v>1997.540000</v>
+        <v>1997.54</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.080000</v>
+        <v>-1804.08</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>80632.054186</v>
+        <v>80632.054185999994</v>
       </c>
       <c r="BT17" s="1">
         <v>22.397793</v>
       </c>
       <c r="BU17" s="1">
-        <v>2386.770000</v>
+        <v>2386.77</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2673.510000</v>
+        <v>-2673.51</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>80642.984533</v>
+        <v>80642.984532999995</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.400829</v>
+        <v>22.400829000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2865.750000</v>
+        <v>2865.75</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3621.470000</v>
+        <v>-3621.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>80655.367643</v>
+        <v>80655.367643000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.404269</v>
+        <v>22.404268999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4273.690000</v>
+        <v>4273.6899999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5887.680000</v>
+        <v>-5887.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>80480.359731</v>
+        <v>80480.359731000004</v>
       </c>
       <c r="B18" s="1">
-        <v>22.355655</v>
+        <v>22.355654999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1250.300000</v>
+        <v>1250.3</v>
       </c>
       <c r="D18" s="1">
-        <v>-307.467000</v>
+        <v>-307.46699999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>80490.873616</v>
+        <v>80490.873615999997</v>
       </c>
       <c r="G18" s="1">
-        <v>22.358576</v>
+        <v>22.358575999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1276.420000</v>
+        <v>1276.42</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.501000</v>
+        <v>-266.50099999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>80501.063768</v>
+        <v>80501.063768000007</v>
       </c>
       <c r="L18" s="1">
         <v>22.361407</v>
       </c>
       <c r="M18" s="1">
-        <v>1312.990000</v>
+        <v>1312.99</v>
       </c>
       <c r="N18" s="1">
-        <v>-204.989000</v>
+        <v>-204.989</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>80511.661753</v>
+        <v>80511.661752999993</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.364350</v>
+        <v>22.364350000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.796000</v>
+        <v>-186.79599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>80521.805964</v>
+        <v>80521.805963999999</v>
       </c>
       <c r="V18" s="1">
-        <v>22.367168</v>
+        <v>22.367167999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1338.870000</v>
+        <v>1338.87</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.324000</v>
+        <v>-173.32400000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>80532.688653</v>
+        <v>80532.688653000005</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.370191</v>
+        <v>22.370190999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1357.040000</v>
+        <v>1357.04</v>
       </c>
       <c r="AC18" s="1">
-        <v>-171.150000</v>
+        <v>-171.15</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>80543.173120</v>
+        <v>80543.173120000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.373104</v>
+        <v>22.373104000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1370.410000</v>
+        <v>1370.41</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.611000</v>
+        <v>-180.61099999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>80553.661489</v>
+        <v>80553.661489000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.376017</v>
+        <v>22.376017000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1391.820000</v>
+        <v>1391.82</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.314000</v>
+        <v>-210.31399999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>80564.819492</v>
+        <v>80564.819491999995</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.379117</v>
+        <v>22.379117000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.598000</v>
+        <v>-253.59800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>80575.925908</v>
+        <v>80575.925908000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.382202</v>
+        <v>22.382201999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1439.560000</v>
+        <v>1439.56</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.809000</v>
+        <v>-312.80900000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>80587.030342</v>
+        <v>80587.030341999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.385286</v>
+        <v>22.385286000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1459.360000</v>
+        <v>1459.36</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>80598.081207</v>
+        <v>80598.081206999996</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.388356</v>
+        <v>22.388356000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1546.050000</v>
+        <v>1546.05</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.076000</v>
+        <v>-609.07600000000002</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>80609.329700</v>
+        <v>80609.329700000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.391480</v>
+        <v>22.391480000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1701.830000</v>
+        <v>1701.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.210000</v>
+        <v>-1047.21</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>80620.584699</v>
+        <v>80620.584698999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.394607</v>
+        <v>22.394607000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1997.540000</v>
+        <v>1997.54</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1804.170000</v>
+        <v>-1804.17</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>80632.477823</v>
+        <v>80632.477822999994</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.397911</v>
+        <v>22.397911000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2386.580000</v>
+        <v>2386.58</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2672.750000</v>
+        <v>-2672.75</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>80643.409100</v>
+        <v>80643.409100000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.400947</v>
+        <v>22.400946999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2866.010000</v>
+        <v>2866.01</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3622.590000</v>
+        <v>-3622.59</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>80655.886955</v>
+        <v>80655.886954999994</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.404413</v>
+        <v>22.404413000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4255.090000</v>
+        <v>4255.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5896.370000</v>
+        <v>-5896.37</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>80480.699496</v>
+        <v>80480.699496000001</v>
       </c>
       <c r="B19" s="1">
-        <v>22.355750</v>
+        <v>22.35575</v>
       </c>
       <c r="C19" s="1">
-        <v>1250.440000</v>
+        <v>1250.44</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.519000</v>
+        <v>-307.51900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>80491.563365</v>
+        <v>80491.563364999995</v>
       </c>
       <c r="G19" s="1">
-        <v>22.358768</v>
+        <v>22.358768000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1276.650000</v>
+        <v>1276.6500000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.573000</v>
+        <v>-266.57299999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>80501.756646</v>
+        <v>80501.756645999994</v>
       </c>
       <c r="L19" s="1">
-        <v>22.361599</v>
+        <v>22.361598999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1312.980000</v>
+        <v>1312.98</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.824000</v>
+        <v>-204.82400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>80512.010441</v>
+        <v>80512.010441000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.364447</v>
+        <v>22.364446999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.833000</v>
+        <v>-186.833</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>80522.150157</v>
+        <v>80522.150156999996</v>
       </c>
       <c r="V19" s="1">
-        <v>22.367264</v>
+        <v>22.367263999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1339.100000</v>
+        <v>1339.1</v>
       </c>
       <c r="X19" s="1">
-        <v>-173.444000</v>
+        <v>-173.44399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>80533.037373</v>
+        <v>80533.037372999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.370288</v>
+        <v>22.370287999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1356.960000</v>
+        <v>1356.96</v>
       </c>
       <c r="AC19" s="1">
-        <v>-171.100000</v>
+        <v>-171.1</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>80543.843713</v>
+        <v>80543.843712999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.373290</v>
+        <v>22.373290000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1370.400000</v>
+        <v>1370.4</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.730000</v>
+        <v>-180.73</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>80554.321201</v>
+        <v>80554.321200999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.376200</v>
+        <v>22.376200000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1391.820000</v>
+        <v>1391.82</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.286000</v>
+        <v>-210.286</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>80565.262450</v>
+        <v>80565.262449999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.379240</v>
+        <v>22.379239999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1414.240000</v>
+        <v>1414.24</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.597000</v>
+        <v>-253.59700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>80576.374324</v>
+        <v>80576.374324000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.382326</v>
+        <v>22.382325999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.811000</v>
+        <v>-312.81099999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>80587.406820</v>
+        <v>80587.406820000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.385391</v>
+        <v>22.385390999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1459.370000</v>
+        <v>1459.37</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.232000</v>
+        <v>-364.23200000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>80598.439355</v>
+        <v>80598.439354999995</v>
       </c>
       <c r="BE19" s="1">
         <v>22.388455</v>
       </c>
       <c r="BF19" s="1">
-        <v>1546.040000</v>
+        <v>1546.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.052000</v>
+        <v>-609.05200000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>80609.703959</v>
+        <v>80609.703959000006</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.391584</v>
+        <v>22.391584000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1701.890000</v>
+        <v>1701.89</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.240000</v>
+        <v>-1047.24</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>80621.016249</v>
+        <v>80621.016248999993</v>
       </c>
       <c r="BO19" s="1">
         <v>22.394727</v>
       </c>
       <c r="BP19" s="1">
-        <v>1997.460000</v>
+        <v>1997.46</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1804.060000</v>
+        <v>-1804.06</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>80632.899369</v>
+        <v>80632.899369000006</v>
       </c>
       <c r="BT19" s="1">
         <v>22.398028</v>
       </c>
       <c r="BU19" s="1">
-        <v>2386.370000</v>
+        <v>2386.37</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2672.650000</v>
+        <v>-2672.65</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>80643.834171</v>
+        <v>80643.834170999995</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.401065</v>
+        <v>22.401064999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2866.100000</v>
+        <v>2866.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3621.940000</v>
+        <v>-3621.94</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>80656.425119</v>
+        <v>80656.425119000007</v>
       </c>
       <c r="CD19" s="1">
         <v>22.404563</v>
       </c>
       <c r="CE19" s="1">
-        <v>4279.370000</v>
+        <v>4279.37</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5894.360000</v>
+        <v>-5894.36</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>80481.382482</v>
+        <v>80481.382482000001</v>
       </c>
       <c r="B20" s="1">
-        <v>22.355940</v>
+        <v>22.35594</v>
       </c>
       <c r="C20" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-307.950000</v>
+        <v>-307.95</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>80491.907230</v>
+        <v>80491.907229999997</v>
       </c>
       <c r="G20" s="1">
-        <v>22.358863</v>
+        <v>22.358862999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1276.710000</v>
+        <v>1276.71</v>
       </c>
       <c r="I20" s="1">
-        <v>-267.369000</v>
+        <v>-267.36900000000003</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>80502.101366</v>
+        <v>80502.101366000003</v>
       </c>
       <c r="L20" s="1">
-        <v>22.361695</v>
+        <v>22.361695000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1312.970000</v>
+        <v>1312.97</v>
       </c>
       <c r="N20" s="1">
-        <v>-204.784000</v>
+        <v>-204.78399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>80512.360616</v>
+        <v>80512.360616000005</v>
       </c>
       <c r="Q20" s="1">
         <v>22.364545</v>
       </c>
       <c r="R20" s="1">
-        <v>1325.140000</v>
+        <v>1325.14</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.923000</v>
+        <v>-186.923</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>80522.498349</v>
+        <v>80522.498349000001</v>
       </c>
       <c r="V20" s="1">
-        <v>22.367361</v>
+        <v>22.367360999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1338.870000</v>
+        <v>1338.87</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.255000</v>
+        <v>-173.255</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>80533.707932</v>
+        <v>80533.707932000005</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.370474</v>
+        <v>22.370474000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1357.010000</v>
+        <v>1357.01</v>
       </c>
       <c r="AC20" s="1">
-        <v>-171.039000</v>
+        <v>-171.03899999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>80544.204798</v>
+        <v>80544.204798000006</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.373390</v>
+        <v>22.373390000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1370.440000</v>
+        <v>1370.44</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.697000</v>
+        <v>-180.697</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>80554.700608</v>
+        <v>80554.700607999999</v>
       </c>
       <c r="AK20" s="1">
         <v>22.376306</v>
       </c>
       <c r="AL20" s="1">
-        <v>1391.830000</v>
+        <v>1391.83</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.277000</v>
+        <v>-210.27699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>80565.623506</v>
+        <v>80565.623506000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.379340</v>
+        <v>22.379339999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1414.300000</v>
+        <v>1414.3</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.598000</v>
+        <v>-253.59800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>80576.738851</v>
+        <v>80576.738851000002</v>
       </c>
       <c r="AU20" s="1">
         <v>22.382427</v>
       </c>
       <c r="AV20" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.807000</v>
+        <v>-312.80700000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>80587.784261</v>
+        <v>80587.784260999993</v>
       </c>
       <c r="AZ20" s="1">
         <v>22.385496</v>
       </c>
       <c r="BA20" s="1">
-        <v>1459.300000</v>
+        <v>1459.3</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.203000</v>
+        <v>-364.20299999999997</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>80598.871830</v>
+        <v>80598.871830000004</v>
       </c>
       <c r="BE20" s="1">
         <v>22.388576</v>
       </c>
       <c r="BF20" s="1">
-        <v>1546.040000</v>
+        <v>1546.04</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.024000</v>
+        <v>-609.024</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>80610.196487</v>
+        <v>80610.196486999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.391721</v>
       </c>
       <c r="BK20" s="1">
-        <v>1701.840000</v>
+        <v>1701.84</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.190000</v>
+        <v>-1047.19</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>80621.402104</v>
+        <v>80621.402103999993</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.394834</v>
+        <v>22.394833999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1997.450000</v>
+        <v>1997.45</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.010000</v>
+        <v>-1804.01</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>80633.326424</v>
+        <v>80633.326423999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.398146</v>
+        <v>22.398146000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2386.140000</v>
+        <v>2386.14</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2672.380000</v>
+        <v>-2672.38</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>80644.255770</v>
+        <v>80644.255770000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.401182</v>
+        <v>22.401181999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2866.260000</v>
+        <v>2866.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3621.490000</v>
+        <v>-3621.49</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>80656.966774</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.404713</v>
+        <v>22.404713000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4259.400000</v>
+        <v>4259.3999999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5888.610000</v>
+        <v>-5888.61</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>80481.726705</v>
+        <v>80481.726704999994</v>
       </c>
       <c r="B21" s="1">
-        <v>22.356035</v>
+        <v>22.356034999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1250.400000</v>
+        <v>1250.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.062000</v>
+        <v>-308.06200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>80492.251316</v>
+        <v>80492.251315999994</v>
       </c>
       <c r="G21" s="1">
-        <v>22.358959</v>
+        <v>22.358958999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1276.240000</v>
+        <v>1276.24</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.455000</v>
+        <v>-266.45499999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>80502.445094</v>
+        <v>80502.445093999995</v>
       </c>
       <c r="L21" s="1">
-        <v>22.361790</v>
+        <v>22.361789999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="N21" s="1">
-        <v>-205.110000</v>
+        <v>-205.11</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>80513.022280</v>
+        <v>80513.022280000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.364728</v>
+        <v>22.364727999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1325.100000</v>
+        <v>1325.1</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.808000</v>
+        <v>-186.80799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>80523.161994</v>
+        <v>80523.161993999995</v>
       </c>
       <c r="V21" s="1">
         <v>22.367545</v>
       </c>
       <c r="W21" s="1">
-        <v>1338.780000</v>
+        <v>1338.78</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.453000</v>
+        <v>-173.453</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>80534.081916</v>
+        <v>80534.081915999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.370578</v>
+        <v>22.370577999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1357.000000</v>
+        <v>1357</v>
       </c>
       <c r="AC21" s="1">
-        <v>-171.151000</v>
+        <v>-171.15100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>80544.547006</v>
+        <v>80544.547005999993</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.373485</v>
+        <v>22.373484999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1370.370000</v>
+        <v>1370.37</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.653000</v>
+        <v>-180.65299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>80555.055248</v>
+        <v>80555.055248000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.376404</v>
+        <v>22.376404000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1391.790000</v>
+        <v>1391.79</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.274000</v>
+        <v>-210.274</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>80565.983602</v>
+        <v>80565.983601999993</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.379440</v>
+        <v>22.379439999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1414.260000</v>
+        <v>1414.26</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.603000</v>
+        <v>-253.60300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>80577.168882</v>
+        <v>80577.168881999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.382547</v>
+        <v>22.382546999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1439.560000</v>
+        <v>1439.56</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.779000</v>
+        <v>-312.779</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>80588.218757</v>
+        <v>80588.218756999995</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.385616</v>
+        <v>22.385615999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1459.310000</v>
+        <v>1459.31</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.207000</v>
+        <v>-364.20699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>80599.163974</v>
+        <v>80599.163973999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.388657</v>
+        <v>22.388656999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1546.030000</v>
+        <v>1546.03</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.046000</v>
+        <v>-609.04600000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>80610.476231</v>
+        <v>80610.476230999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.391799</v>
+        <v>22.391798999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1701.870000</v>
+        <v>1701.87</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.150000</v>
+        <v>-1047.1500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>80621.801383</v>
+        <v>80621.801382999998</v>
       </c>
       <c r="BO21" s="1">
         <v>22.394945</v>
       </c>
       <c r="BP21" s="1">
-        <v>1997.520000</v>
+        <v>1997.52</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1804.020000</v>
+        <v>-1804.02</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>80633.737144</v>
+        <v>80633.737143999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.398260</v>
+        <v>22.398260000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2385.570000</v>
+        <v>2385.5700000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2672.350000</v>
+        <v>-2672.35</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>80645.007210</v>
+        <v>80645.007209999996</v>
       </c>
       <c r="BY21" s="1">
         <v>22.401391</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2865.880000</v>
+        <v>2865.88</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3621.850000</v>
+        <v>-3621.85</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>80657.507385</v>
+        <v>80657.507385000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.404863</v>
+        <v>22.404862999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4269.790000</v>
+        <v>4269.79</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5903.020000</v>
+        <v>-5903.02</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>80482.070433</v>
+        <v>80482.070433000001</v>
       </c>
       <c r="B22" s="1">
-        <v>22.356131</v>
+        <v>22.356131000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1250.490000</v>
+        <v>1250.49</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.311000</v>
+        <v>-307.31099999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>80492.909010</v>
+        <v>80492.909010000003</v>
       </c>
       <c r="G22" s="1">
-        <v>22.359141</v>
+        <v>22.359141000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1276.850000</v>
+        <v>1276.8499999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.639000</v>
+        <v>-266.63900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>80503.114725</v>
+        <v>80503.114725000007</v>
       </c>
       <c r="L22" s="1">
-        <v>22.361976</v>
+        <v>22.361975999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1312.950000</v>
+        <v>1312.95</v>
       </c>
       <c r="N22" s="1">
-        <v>-204.932000</v>
+        <v>-204.93199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>80513.405687</v>
+        <v>80513.405687000006</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.364835</v>
+        <v>22.364834999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1325.150000</v>
+        <v>1325.15</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.736000</v>
+        <v>-186.73599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>80523.586083</v>
+        <v>80523.586083000002</v>
       </c>
       <c r="V22" s="1">
         <v>22.367663</v>
       </c>
       <c r="W22" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="X22" s="1">
-        <v>-173.277000</v>
+        <v>-173.27699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>80534.429611</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.370675</v>
+        <v>22.370674999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1356.910000</v>
+        <v>1356.91</v>
       </c>
       <c r="AC22" s="1">
-        <v>-171.136000</v>
+        <v>-171.136</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>80544.890270</v>
+        <v>80544.890270000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.373581</v>
+        <v>22.373581000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1370.240000</v>
+        <v>1370.24</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.624000</v>
+        <v>-180.624</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>80555.410383</v>
+        <v>80555.410382999995</v>
       </c>
       <c r="AK22" s="1">
         <v>22.376503</v>
       </c>
       <c r="AL22" s="1">
-        <v>1391.820000</v>
+        <v>1391.82</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.260000</v>
+        <v>-210.26</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>80566.397793</v>
+        <v>80566.397792999996</v>
       </c>
       <c r="AP22" s="1">
         <v>22.379555</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.588000</v>
+        <v>-253.58799999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>80577.468962</v>
+        <v>80577.468961999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.382630</v>
+        <v>22.382629999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1439.570000</v>
+        <v>1439.57</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.817000</v>
+        <v>-312.81700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>80588.502004</v>
+        <v>80588.502003999994</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.385695</v>
+        <v>22.385694999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>80599.524565</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.388757</v>
+        <v>22.388756999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1546.060000</v>
+        <v>1546.06</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.066000</v>
+        <v>-609.06600000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>80610.841782</v>
+        <v>80610.841782000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.391900</v>
+        <v>22.3919</v>
       </c>
       <c r="BK22" s="1">
-        <v>1701.860000</v>
+        <v>1701.86</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.200000</v>
+        <v>-1047.2</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>80622.222487</v>
+        <v>80622.222487000006</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.395062</v>
+        <v>22.395061999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1997.430000</v>
+        <v>1997.43</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1804.000000</v>
+        <v>-1804</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>80634.169625</v>
+        <v>80634.169624999995</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.398380</v>
+        <v>22.39838</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.060000</v>
+        <v>2385.06</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2672.240000</v>
+        <v>-2672.24</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>80645.121290</v>
+        <v>80645.121289999995</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.401423</v>
+        <v>22.401423000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.370000</v>
+        <v>2865.37</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3621.630000</v>
+        <v>-3621.63</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>80658.048024</v>
+        <v>80658.048024000003</v>
       </c>
       <c r="CD22" s="1">
         <v>22.405013</v>
       </c>
       <c r="CE22" s="1">
-        <v>4270.440000</v>
+        <v>4270.4399999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5885.890000</v>
+        <v>-5885.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>80482.726176</v>
+        <v>80482.726175999996</v>
       </c>
       <c r="B23" s="1">
         <v>22.356313</v>
       </c>
       <c r="C23" s="1">
-        <v>1250.260000</v>
+        <v>1250.26</v>
       </c>
       <c r="D23" s="1">
-        <v>-307.798000</v>
+        <v>-307.798</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>80493.285011</v>
       </c>
       <c r="G23" s="1">
-        <v>22.359246</v>
+        <v>22.359245999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1275.640000</v>
+        <v>1275.6400000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.204000</v>
+        <v>-266.20400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>80503.482762</v>
       </c>
       <c r="L23" s="1">
-        <v>22.362079</v>
+        <v>22.362079000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1312.850000</v>
+        <v>1312.85</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.933000</v>
+        <v>-204.93299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>80513.752423</v>
+        <v>80513.752422999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.364931</v>
+        <v>22.364930999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1325.210000</v>
+        <v>1325.21</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.787000</v>
+        <v>-186.78700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>80523.878218</v>
+        <v>80523.878217999998</v>
       </c>
       <c r="V23" s="1">
-        <v>22.367744</v>
+        <v>22.367743999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1338.800000</v>
+        <v>1338.8</v>
       </c>
       <c r="X23" s="1">
-        <v>-173.342000</v>
+        <v>-173.34200000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>80534.780780</v>
+        <v>80534.780780000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.370772</v>
+        <v>22.370771999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1357.000000</v>
+        <v>1357</v>
       </c>
       <c r="AC23" s="1">
-        <v>-171.006000</v>
+        <v>-171.006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>80545.314349</v>
+        <v>80545.314348999993</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.373698</v>
+        <v>22.373698000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1370.370000</v>
+        <v>1370.37</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.674000</v>
+        <v>-180.67400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>80555.840911</v>
+        <v>80555.840911000007</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.376622</v>
+        <v>22.376622000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1391.820000</v>
+        <v>1391.82</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.295000</v>
+        <v>-210.29499999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>80566.706769</v>
+        <v>80566.706768999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.379641</v>
+        <v>22.379640999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.613000</v>
+        <v>-253.613</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>80577.834018</v>
+        <v>80577.834017999994</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.382732</v>
+        <v>22.382732000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1439.550000</v>
+        <v>1439.55</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.783000</v>
+        <v>-312.78300000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>80588.864877</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.385796</v>
+        <v>22.385795999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.191000</v>
+        <v>-364.19099999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>80599.887637</v>
+        <v>80599.887637000007</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.388858</v>
+        <v>22.388857999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1546.070000</v>
+        <v>1546.07</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.031000</v>
+        <v>-609.03099999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>80611.606117</v>
+        <v>80611.606117000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.392113</v>
+        <v>22.392112999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1701.810000</v>
+        <v>1701.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.200000</v>
+        <v>-1047.2</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>80623.037414</v>
+        <v>80623.037414000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.395288</v>
+        <v>22.395288000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1997.390000</v>
+        <v>1997.39</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.100000</v>
+        <v>-1804.1</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>80634.598663</v>
+        <v>80634.598662999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.398500</v>
+        <v>22.398499999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2385.010000</v>
+        <v>2385.0100000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2672.370000</v>
+        <v>-2672.37</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>80645.533500</v>
+        <v>80645.533500000005</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.401537</v>
+        <v>22.401537000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2866.370000</v>
+        <v>2866.37</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3622.230000</v>
+        <v>-3622.23</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>80658.584695</v>
+        <v>80658.584694999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.405162</v>
+        <v>22.405162000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4256.080000</v>
+        <v>4256.08</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5897.380000</v>
+        <v>-5897.38</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>80483.093183</v>
+        <v>80483.093183000005</v>
       </c>
       <c r="B24" s="1">
-        <v>22.356415</v>
+        <v>22.356414999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1250.390000</v>
+        <v>1250.3900000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.440000</v>
+        <v>-307.44</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>80493.631217</v>
+        <v>80493.631217000002</v>
       </c>
       <c r="G24" s="1">
-        <v>22.359342</v>
+        <v>22.359342000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1276.040000</v>
+        <v>1276.04</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.491000</v>
+        <v>-266.49099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>80503.831908</v>
+        <v>80503.831907999993</v>
       </c>
       <c r="L24" s="1">
-        <v>22.362176</v>
+        <v>22.362176000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1312.900000</v>
+        <v>1312.9</v>
       </c>
       <c r="N24" s="1">
-        <v>-204.661000</v>
+        <v>-204.661</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>80514.102071</v>
+        <v>80514.102071000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.365028</v>
+        <v>22.365027999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1325.240000</v>
+        <v>1325.24</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.814000</v>
+        <v>-186.81399999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>80524.557736</v>
+        <v>80524.557736000002</v>
       </c>
       <c r="V24" s="1">
-        <v>22.367933</v>
+        <v>22.367933000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1338.860000</v>
+        <v>1338.86</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.283000</v>
+        <v>-173.28299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>80535.209323</v>
+        <v>80535.209323000003</v>
       </c>
       <c r="AA24" s="1">
         <v>22.370891</v>
       </c>
       <c r="AB24" s="1">
-        <v>1356.980000</v>
+        <v>1356.98</v>
       </c>
       <c r="AC24" s="1">
-        <v>-171.194000</v>
+        <v>-171.19399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>80545.578723</v>
+        <v>80545.578722999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.373772</v>
+        <v>22.373771999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1370.390000</v>
+        <v>1370.39</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.706000</v>
+        <v>-180.70599999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>80556.108782</v>
+        <v>80556.108781999996</v>
       </c>
       <c r="AK24" s="1">
         <v>22.376697</v>
       </c>
       <c r="AL24" s="1">
-        <v>1391.840000</v>
+        <v>1391.84</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.280000</v>
+        <v>-210.28</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>80567.063921</v>
+        <v>80567.063920999994</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.379740</v>
+        <v>22.379740000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1414.270000</v>
+        <v>1414.27</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.604000</v>
+        <v>-253.60400000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>80578.198590</v>
+        <v>80578.19859</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.382833</v>
+        <v>22.382833000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1439.540000</v>
+        <v>1439.54</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.798000</v>
+        <v>-312.798</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>80589.219715</v>
+        <v>80589.219714999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>22.385894</v>
       </c>
       <c r="BA24" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.157000</v>
+        <v>-364.15699999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>80600.611301</v>
+        <v>80600.611300999997</v>
       </c>
       <c r="BE24" s="1">
         <v>22.389059</v>
       </c>
       <c r="BF24" s="1">
-        <v>1546.050000</v>
+        <v>1546.05</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.043000</v>
+        <v>-609.04300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>80611.982581</v>
+        <v>80611.982581000004</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.392217</v>
+        <v>22.392216999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1701.880000</v>
+        <v>1701.88</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.170000</v>
+        <v>-1047.17</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>80623.455542</v>
+        <v>80623.455541999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.395404</v>
+        <v>22.395403999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1997.510000</v>
+        <v>1997.51</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1804.010000</v>
+        <v>-1804.01</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>80635.007862</v>
+        <v>80635.007861999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.398613</v>
+        <v>22.398613000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2384.590000</v>
+        <v>2384.59</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2672.420000</v>
+        <v>-2672.42</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>80646.311687</v>
+        <v>80646.311686999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.401753</v>
+        <v>22.401752999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2865.920000</v>
+        <v>2865.92</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3621.920000</v>
+        <v>-3621.92</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>80659.442774</v>
+        <v>80659.442773999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.405401</v>
+        <v>22.405401000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4265.710000</v>
+        <v>4265.71</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5881.560000</v>
+        <v>-5881.56</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>80483.437902</v>
+        <v>80483.437902000005</v>
       </c>
       <c r="B25" s="1">
-        <v>22.356511</v>
+        <v>22.356511000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1250.460000</v>
+        <v>1250.46</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.200000</v>
+        <v>-307.2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>80493.974448</v>
+        <v>80493.974447999994</v>
       </c>
       <c r="G25" s="1">
         <v>22.359437</v>
       </c>
       <c r="H25" s="1">
-        <v>1276.940000</v>
+        <v>1276.94</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.192000</v>
+        <v>-266.19200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>80504.177619</v>
+        <v>80504.177618999995</v>
       </c>
       <c r="L25" s="1">
-        <v>22.362272</v>
+        <v>22.362272000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1313.060000</v>
+        <v>1313.06</v>
       </c>
       <c r="N25" s="1">
-        <v>-205.129000</v>
+        <v>-205.12899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>80514.530613</v>
+        <v>80514.530612999995</v>
       </c>
       <c r="Q25" s="1">
         <v>22.365147</v>
       </c>
       <c r="R25" s="1">
-        <v>1325.230000</v>
+        <v>1325.23</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.943000</v>
+        <v>-186.94300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>80524.910888</v>
+        <v>80524.910887999999</v>
       </c>
       <c r="V25" s="1">
-        <v>22.368031</v>
+        <v>22.368030999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1338.970000</v>
+        <v>1338.97</v>
       </c>
       <c r="X25" s="1">
-        <v>-173.307000</v>
+        <v>-173.30699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>80535.488076</v>
+        <v>80535.488075999994</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.370969</v>
+        <v>22.370968999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1356.880000</v>
+        <v>1356.88</v>
       </c>
       <c r="AC25" s="1">
-        <v>-171.165000</v>
+        <v>-171.16499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>80545.923935</v>
+        <v>80545.923934999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.373868</v>
+        <v>22.373868000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1370.360000</v>
+        <v>1370.36</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.686000</v>
+        <v>-180.68600000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>80556.455998</v>
+        <v>80556.455998000005</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.376793</v>
+        <v>22.376792999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.293000</v>
+        <v>-210.29300000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>80567.426464</v>
+        <v>80567.426464000004</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.379841</v>
+        <v>22.379840999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1414.240000</v>
+        <v>1414.24</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.544000</v>
+        <v>-253.54400000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>80578.924721</v>
+        <v>80578.924721000003</v>
       </c>
       <c r="AU25" s="1">
         <v>22.383035</v>
       </c>
       <c r="AV25" s="1">
-        <v>1439.540000</v>
+        <v>1439.54</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.803000</v>
+        <v>-312.803</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>80589.938387</v>
+        <v>80589.938387000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>22.386094</v>
       </c>
       <c r="BA25" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.174000</v>
+        <v>-364.17399999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>80600.972389</v>
+        <v>80600.972389000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.389159</v>
+        <v>22.389158999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1546.050000</v>
+        <v>1546.05</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.022000</v>
+        <v>-609.02200000000005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>80612.356069</v>
+        <v>80612.356069000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.392321</v>
+        <v>22.392320999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1701.890000</v>
+        <v>1701.89</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.200000</v>
+        <v>-1047.2</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>80623.851878</v>
+        <v>80623.851878000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.395514</v>
+        <v>22.395513999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1997.490000</v>
+        <v>1997.49</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1803.990000</v>
+        <v>-1803.99</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>80635.771739</v>
+        <v>80635.771739000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.398825</v>
+        <v>22.398824999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2384.550000</v>
+        <v>2384.5500000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2672.480000</v>
+        <v>-2672.48</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>80646.439656</v>
+        <v>80646.439656000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.401789</v>
+        <v>22.401789000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2865.910000</v>
+        <v>2865.91</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3621.290000</v>
+        <v>-3621.29</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>80659.664486</v>
+        <v>80659.664485999994</v>
       </c>
       <c r="CD25" s="1">
         <v>22.405462</v>
       </c>
       <c r="CE25" s="1">
-        <v>4266.770000</v>
+        <v>4266.7700000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5883.860000</v>
+        <v>-5883.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>80483.780638</v>
+        <v>80483.780637999997</v>
       </c>
       <c r="B26" s="1">
-        <v>22.356606</v>
+        <v>22.356605999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1250.280000</v>
+        <v>1250.28</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.593000</v>
+        <v>-307.59300000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>80494.398000</v>
+        <v>80494.398000000001</v>
       </c>
       <c r="G26" s="1">
         <v>22.359555</v>
       </c>
       <c r="H26" s="1">
-        <v>1276.350000</v>
+        <v>1276.3499999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.648000</v>
+        <v>-266.64800000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>80504.606691</v>
+        <v>80504.606690999994</v>
       </c>
       <c r="L26" s="1">
-        <v>22.362391</v>
+        <v>22.362390999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1312.690000</v>
+        <v>1312.69</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.813000</v>
+        <v>-204.81299999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>80514.810890</v>
+        <v>80514.810889999993</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.365225</v>
+        <v>22.365224999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1325.180000</v>
+        <v>1325.18</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.881000</v>
+        <v>-186.881</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>80525.255111</v>
+        <v>80525.255111000006</v>
       </c>
       <c r="V26" s="1">
         <v>22.368126</v>
       </c>
       <c r="W26" s="1">
-        <v>1338.870000</v>
+        <v>1338.87</v>
       </c>
       <c r="X26" s="1">
-        <v>-173.260000</v>
+        <v>-173.26</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>80535.835304</v>
+        <v>80535.835303999993</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.371065</v>
+        <v>22.371065000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1356.930000</v>
+        <v>1356.93</v>
       </c>
       <c r="AC26" s="1">
-        <v>-171.054000</v>
+        <v>-171.054</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>80546.268134</v>
+        <v>80546.268133999998</v>
       </c>
       <c r="AF26" s="1">
         <v>22.373963</v>
       </c>
       <c r="AG26" s="1">
-        <v>1370.340000</v>
+        <v>1370.34</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.687000</v>
+        <v>-180.68700000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>80556.805631</v>
+        <v>80556.805630999996</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.376890</v>
+        <v>22.37689</v>
       </c>
       <c r="AL26" s="1">
-        <v>1391.840000</v>
+        <v>1391.84</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.271000</v>
+        <v>-210.27099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>80568.150126</v>
+        <v>80568.150125999993</v>
       </c>
       <c r="AP26" s="1">
         <v>22.380042</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.629000</v>
+        <v>-253.62899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>80579.317552</v>
+        <v>80579.317551999993</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.383144</v>
+        <v>22.383144000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1439.570000</v>
+        <v>1439.57</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.783000</v>
+        <v>-312.78300000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>80590.296002</v>
+        <v>80590.296002000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.386193</v>
+        <v>22.386192999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1459.290000</v>
+        <v>1459.29</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.174000</v>
+        <v>-364.17399999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>80601.331027</v>
+        <v>80601.331026999993</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.389259</v>
+        <v>22.389258999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1546.050000</v>
+        <v>1546.05</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.027000</v>
+        <v>-609.02700000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>80613.069811</v>
+        <v>80613.069810999994</v>
       </c>
       <c r="BJ26" s="1">
         <v>22.392519</v>
       </c>
       <c r="BK26" s="1">
-        <v>1701.870000</v>
+        <v>1701.87</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.150000</v>
+        <v>-1047.1500000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>80624.575509</v>
+        <v>80624.575509000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.395715</v>
+        <v>22.395714999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1997.540000</v>
+        <v>1997.54</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1803.920000</v>
+        <v>-1803.92</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>80635.876357</v>
+        <v>80635.876357000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.398855</v>
+        <v>22.398855000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2383.890000</v>
+        <v>2383.89</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2672.580000</v>
+        <v>-2672.58</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>80646.880117</v>
+        <v>80646.880116999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.401911</v>
+        <v>22.401910999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.320000</v>
+        <v>2865.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3621.440000</v>
+        <v>-3621.44</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>80660.184789</v>
+        <v>80660.184789000006</v>
       </c>
       <c r="CD26" s="1">
         <v>22.405607</v>
       </c>
       <c r="CE26" s="1">
-        <v>4258.990000</v>
+        <v>4258.99</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5895.480000</v>
+        <v>-5895.48</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>